--- a/biology/Médecine/État_limite_(film)/État_limite_(film).xlsx
+++ b/biology/Médecine/État_limite_(film)/État_limite_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tat_limite_(film)</t>
+          <t>État_limite_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">État limite est un film documentaire français réalisé par Nicolas Peduzzi et sorti en 2023.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tat_limite_(film)</t>
+          <t>État_limite_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'activité quotidienne d'un jeune médecin, unique psychiatre de l'hôpital Beaujon à Clichy, illustrant le manque de moyens du secteur de la santé mentale dans le milieu hospitalier[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activité quotidienne d'un jeune médecin, unique psychiatre de l'hôpital Beaujon à Clichy, illustrant le manque de moyens du secteur de la santé mentale dans le milieu hospitalier.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tat_limite_(film)</t>
+          <t>État_limite_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : État limite
 Réalisation : Nicolas Peduzzi
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tat_limite_(film)</t>
+          <t>État_limite_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +600,12 @@
           <t>Sélections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Festival de Cannes 2023 (programmation de l'ACID)[2]
-Champs-Élysées Film Festival 2023[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2023 (programmation de l'ACID)
+Champs-Élysées Film Festival 2023
 Festival La Rochelle Cinéma 2023
 Festival Pariscience 2023</t>
         </is>
